--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H2">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I2">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J2">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>1.045891883112667</v>
+        <v>0.2580390276278889</v>
       </c>
       <c r="R2">
-        <v>9.413026948014002</v>
+        <v>2.322351248651</v>
       </c>
       <c r="S2">
-        <v>0.1107869735100408</v>
+        <v>0.01267297196201849</v>
       </c>
       <c r="T2">
-        <v>0.1107869735100408</v>
+        <v>0.01267297196201849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H3">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I3">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J3">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>0.1964218011146666</v>
+        <v>0.03633192013422221</v>
       </c>
       <c r="R3">
-        <v>1.767796210032</v>
+        <v>0.326987281208</v>
       </c>
       <c r="S3">
-        <v>0.020806143759451</v>
+        <v>0.001784355682239168</v>
       </c>
       <c r="T3">
-        <v>0.02080614375945102</v>
+        <v>0.001784355682239168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H4">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I4">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J4">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>0.05817383957133333</v>
+        <v>0.007759736923555556</v>
       </c>
       <c r="R4">
-        <v>0.523564556142</v>
+        <v>0.06983763231199999</v>
       </c>
       <c r="S4">
-        <v>0.006162112669223577</v>
+        <v>0.0003811009883616174</v>
       </c>
       <c r="T4">
-        <v>0.006162112669223579</v>
+        <v>0.0003811009883616174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H5">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I5">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J5">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>0.004249473268666666</v>
+        <v>0.001521580706333333</v>
       </c>
       <c r="R5">
-        <v>0.038245259418</v>
+        <v>0.013694226357</v>
       </c>
       <c r="S5">
-        <v>0.0004501290143358784</v>
+        <v>7.472881062440695E-05</v>
       </c>
       <c r="T5">
-        <v>0.0004501290143358785</v>
+        <v>7.472881062440695E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>2.436426</v>
       </c>
       <c r="I6">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J6">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>3.693837575058</v>
+        <v>4.926945259338</v>
       </c>
       <c r="R6">
-        <v>33.244538175522</v>
+        <v>44.342507334042</v>
       </c>
       <c r="S6">
-        <v>0.3912728382215205</v>
+        <v>0.2419751760188464</v>
       </c>
       <c r="T6">
-        <v>0.3912728382215206</v>
+        <v>0.2419751760188464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.436426</v>
       </c>
       <c r="I7">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J7">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>0.6937143707039999</v>
@@ -886,10 +886,10 @@
         <v>6.243429336335999</v>
       </c>
       <c r="S7">
-        <v>0.07348227560767831</v>
+        <v>0.03407012826857712</v>
       </c>
       <c r="T7">
-        <v>0.07348227560767832</v>
+        <v>0.03407012826857712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.436426</v>
       </c>
       <c r="I8">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J8">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>0.205455953874</v>
+        <v>0.148162855056</v>
       </c>
       <c r="R8">
-        <v>1.849103584866</v>
+        <v>1.333465695504</v>
       </c>
       <c r="S8">
-        <v>0.02176309395535009</v>
+        <v>0.007276665569539447</v>
       </c>
       <c r="T8">
-        <v>0.02176309395535009</v>
+        <v>0.007276665569539448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.436426</v>
       </c>
       <c r="I9">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J9">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>0.015008113446</v>
+        <v>0.029052755766</v>
       </c>
       <c r="R9">
-        <v>0.135073021014</v>
+        <v>0.261474801894</v>
       </c>
       <c r="S9">
-        <v>0.001589746984008841</v>
+        <v>0.001426856869778777</v>
       </c>
       <c r="T9">
-        <v>0.001589746984008841</v>
+        <v>0.001426856869778777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H10">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I10">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J10">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>0.541193583411</v>
+        <v>7.501956478592445</v>
       </c>
       <c r="R10">
-        <v>4.870742250699001</v>
+        <v>67.517608307332</v>
       </c>
       <c r="S10">
-        <v>0.05732638349837899</v>
+        <v>0.3684407160710041</v>
       </c>
       <c r="T10">
-        <v>0.057326383498379</v>
+        <v>0.3684407160710041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H11">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I11">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J11">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>0.101637865368</v>
+        <v>1.056276200295111</v>
       </c>
       <c r="R11">
-        <v>0.914740788312</v>
+        <v>9.506485802655998</v>
       </c>
       <c r="S11">
-        <v>0.01076607599690945</v>
+        <v>0.05187648858215038</v>
       </c>
       <c r="T11">
-        <v>0.01076607599690945</v>
+        <v>0.05187648858215039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H12">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I12">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J12">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>0.030101876883</v>
+        <v>0.2255984655537778</v>
       </c>
       <c r="R12">
-        <v>0.270916891947</v>
+        <v>2.030386189984</v>
       </c>
       <c r="S12">
-        <v>0.003188566515034503</v>
+        <v>0.01107973105820376</v>
       </c>
       <c r="T12">
-        <v>0.003188566515034504</v>
+        <v>0.01107973105820376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H13">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I13">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J13">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.002198877057</v>
+        <v>0.04423684410266666</v>
       </c>
       <c r="R13">
-        <v>0.019789893513</v>
+        <v>0.398131596924</v>
       </c>
       <c r="S13">
-        <v>0.0002329178935213644</v>
+        <v>0.00217258718634501</v>
       </c>
       <c r="T13">
-        <v>0.0002329178935213644</v>
+        <v>0.002172587186345011</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H14">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I14">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J14">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>0.5876616976387777</v>
+        <v>0.2270568724882222</v>
       </c>
       <c r="R14">
-        <v>5.288955278749</v>
+        <v>2.043511852394</v>
       </c>
       <c r="S14">
-        <v>0.06224855740864328</v>
+        <v>0.01115135723955832</v>
       </c>
       <c r="T14">
-        <v>0.06224855740864329</v>
+        <v>0.01115135723955832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H15">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I15">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J15">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>0.1103647240791111</v>
+        <v>0.03196962968355555</v>
       </c>
       <c r="R15">
-        <v>0.9932825167119999</v>
+        <v>0.287726667152</v>
       </c>
       <c r="S15">
-        <v>0.01169047581343387</v>
+        <v>0.001570112181635057</v>
       </c>
       <c r="T15">
-        <v>0.01169047581343388</v>
+        <v>0.001570112181635058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H16">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I16">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J16">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>0.03268649262188889</v>
+        <v>0.006828043080888889</v>
       </c>
       <c r="R16">
-        <v>0.294178433597</v>
+        <v>0.061452387728</v>
       </c>
       <c r="S16">
-        <v>0.003462344101438309</v>
+        <v>0.000335343065407703</v>
       </c>
       <c r="T16">
-        <v>0.00346234410143831</v>
+        <v>0.000335343065407703</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H17">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I17">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J17">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>0.002387677651444444</v>
+        <v>0.001338887995333333</v>
       </c>
       <c r="R17">
-        <v>0.021489098863</v>
+        <v>0.012049991958</v>
       </c>
       <c r="S17">
-        <v>0.0002529167545825544</v>
+        <v>6.575629346120122E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002529167545825544</v>
+        <v>6.575629346120123E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H18">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I18">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J18">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N18">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O18">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P18">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q18">
-        <v>1.699080444211111</v>
+        <v>4.388778692849889</v>
       </c>
       <c r="R18">
-        <v>15.2917239979</v>
+        <v>39.499008235649</v>
       </c>
       <c r="S18">
-        <v>0.1799765188004306</v>
+        <v>0.2155444075002378</v>
       </c>
       <c r="T18">
-        <v>0.1799765188004307</v>
+        <v>0.2155444075002378</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H19">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I19">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J19">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>2.562536</v>
       </c>
       <c r="O19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q19">
-        <v>0.3190926772444444</v>
+        <v>0.6179404659102221</v>
       </c>
       <c r="R19">
-        <v>2.8718340952</v>
+        <v>5.561464193192</v>
       </c>
       <c r="S19">
-        <v>0.03380015903357011</v>
+        <v>0.03034867349589445</v>
       </c>
       <c r="T19">
-        <v>0.03380015903357012</v>
+        <v>0.03034867349589445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H20">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I20">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J20">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N20">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O20">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P20">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q20">
-        <v>0.09450501985555554</v>
+        <v>0.1319791365875556</v>
       </c>
       <c r="R20">
-        <v>0.8505451787</v>
+        <v>1.187812229288</v>
       </c>
       <c r="S20">
-        <v>0.01001052336322172</v>
+        <v>0.006481840801064656</v>
       </c>
       <c r="T20">
-        <v>0.01001052336322172</v>
+        <v>0.006481840801064656</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H21">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I21">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J21">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N21">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q21">
-        <v>0.006903387477777777</v>
+        <v>0.02587934486033333</v>
       </c>
       <c r="R21">
-        <v>0.0621304873</v>
+        <v>0.232914103743</v>
       </c>
       <c r="S21">
-        <v>0.0007312470992259595</v>
+        <v>0.001271002355052142</v>
       </c>
       <c r="T21">
-        <v>0.0007312470992259597</v>
+        <v>0.001271002355052142</v>
       </c>
     </row>
   </sheetData>
